--- a/data/trans_dic/P15D$nada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1376216891924533</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2221122935495065</v>
+        <v>0.2221122935495064</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1263752304839248</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1948261548585573</v>
+        <v>0.1948261548585574</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3068374911178938</v>
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1560334403091073</v>
+        <v>0.1548459175840567</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1742374676520483</v>
+        <v>0.1615692974255818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03630820107637613</v>
+        <v>0.0381465362953959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08301633996478072</v>
+        <v>0.08412839229940675</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -727,19 +727,19 @@
       </c>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
-        <v>0.09900584208226622</v>
+        <v>0.09733152086243158</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1179257409888547</v>
+        <v>0.1343243953783777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1268037239623289</v>
+        <v>0.129549284632729</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01899954507705162</v>
+        <v>0.01863085604399983</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1179964959691526</v>
+        <v>0.1193260671291308</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7225648944658568</v>
+        <v>0.7160112599191253</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5244472071882005</v>
+        <v>0.5243534710057972</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3656910491385916</v>
+        <v>0.359921590204807</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.438232265162839</v>
+        <v>0.4353811219402774</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5739818109588255</v>
+        <v>0.5715211615968864</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3340668263761924</v>
+        <v>0.2972983325925346</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.3516505886257071</v>
+        <v>0.3239982188850429</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5514063237527091</v>
+        <v>0.5572820027994433</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3710910705898796</v>
+        <v>0.3991641829294624</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2112937539070527</v>
+        <v>0.1891675998323667</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3308816390047262</v>
+        <v>0.3479243662734782</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.0604300314099977</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2240328567202902</v>
+        <v>0.2240328567202901</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4513066702645568</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08735318376760148</v>
+        <v>0.1156202789709831</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1187635346331239</v>
+        <v>0.1196691445816154</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06945013464635444</v>
+        <v>0.07009966595660057</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1123180365284164</v>
+        <v>0.1098795836231437</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04308273319377356</v>
+        <v>0.04355834642161732</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05762967949864893</v>
+        <v>0.06390406981907487</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1853710715935831</v>
+        <v>0.1772498841462286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.148323975534026</v>
+        <v>0.1500382410942257</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04011054649601413</v>
+        <v>0.02880036782328152</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1006503119635688</v>
+        <v>0.09878425807693725</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6130870186921569</v>
+        <v>0.6106328072300909</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4392474915100262</v>
+        <v>0.4516514061640261</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2494414510019314</v>
+        <v>0.3046053751494819</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5206174269059435</v>
+        <v>0.4955936342601955</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1</v>
+        <v>0.8596748068301759</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4906237629552129</v>
+        <v>0.4647954908489659</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4110868409253682</v>
+        <v>0.4329811352853825</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2908868252605519</v>
+        <v>0.3061913616039851</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6338488526841588</v>
+        <v>0.6119196037089077</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.393811972979182</v>
+        <v>0.4071139222413681</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2728919250014885</v>
+        <v>0.2845220689231774</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3401575540394706</v>
+        <v>0.3676195741189004</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.1634903819049693</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0995911757231995</v>
+        <v>0.09959117572319953</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5649551687178628</v>
@@ -965,7 +965,7 @@
         <v>0.1819809855993247</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1229601804789174</v>
+        <v>0.1229601804789175</v>
       </c>
     </row>
     <row r="11">
@@ -976,19 +976,19 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07485679931111727</v>
+        <v>0.06780268948809411</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.107499063259247</v>
+        <v>0.1110177031922268</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06149023934633892</v>
+        <v>0.06155479801236108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03554495898284644</v>
+        <v>0.03549456045787306</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1603581232165274</v>
+        <v>0.1560886049877384</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
@@ -997,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05300487324937158</v>
+        <v>0.05007933414253463</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1192105939131172</v>
+        <v>0.113888712888722</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1062846191486416</v>
+        <v>0.1110236244725153</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08178626718077338</v>
+        <v>0.07893944407167935</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06122422663723241</v>
+        <v>0.06146055079363606</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3899953205701117</v>
+        <v>0.4031653939802647</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3200756534460792</v>
+        <v>0.3129810901988715</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3235569591972187</v>
+        <v>0.3085140923482693</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2242976304027406</v>
+        <v>0.2067458177330321</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4176922208927223</v>
+        <v>0.4152245394959219</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.624291720376672</v>
+        <v>0.6336527170786976</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4121354355082524</v>
+        <v>0.4048064747981795</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4259731876002175</v>
+        <v>0.4337791260503278</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2913511699342969</v>
+        <v>0.2878057951755166</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3366842459422158</v>
+        <v>0.3347944447750392</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2265144294645007</v>
+        <v>0.2311169623661207</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.21333382019654</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1138775771662</v>
+        <v>0.1138775771662001</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1566840436982281</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0998232508066761</v>
+        <v>0.09980768551916568</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2175405294730341</v>
+        <v>0.2165217975387631</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03201044209835235</v>
+        <v>0.0320792113528123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.093800944370924</v>
+        <v>0.08871539914628178</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1227290807364063</v>
+        <v>0.1245671912787694</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1034112425317543</v>
+        <v>0.09951932326828304</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06086585185826511</v>
+        <v>0.0616233229462206</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0825813328145715</v>
+        <v>0.08053828965355815</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.209500185883984</v>
+        <v>0.2022245179734234</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07401394688536127</v>
+        <v>0.07217432582973027</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09569636783448446</v>
+        <v>0.08987251108913313</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3545474002408918</v>
+        <v>0.3770414321262423</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4133685037481165</v>
+        <v>0.399375814027897</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1808305802052083</v>
+        <v>0.1901945490234851</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2745933141330527</v>
+        <v>0.2744777747524256</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2418150032696034</v>
+        <v>0.2309418304298407</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3704920342288098</v>
+        <v>0.3735128488692903</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3626901086820331</v>
+        <v>0.3777693271322586</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1917472853342929</v>
+        <v>0.1984574147950147</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2750426186587866</v>
+        <v>0.2903085650582279</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3572942499054804</v>
+        <v>0.3537077148084464</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2140952917827712</v>
+        <v>0.2098520369392795</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2105851856624151</v>
+        <v>0.2109964191626502</v>
       </c>
     </row>
     <row r="16">
@@ -1251,37 +1251,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05323616021785771</v>
+        <v>0.0552621670694356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1294651908524126</v>
+        <v>0.1238988493198293</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04127990881953016</v>
+        <v>0.03899685230789339</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03873671586570022</v>
+        <v>0.03897442257650035</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.165203250066525</v>
+        <v>0.1647168303219316</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05347227263575845</v>
+        <v>0.05301655375148584</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08816857732427506</v>
+        <v>0.096539574792782</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.040660351446307</v>
+        <v>0.05212148947962481</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1479168393168765</v>
+        <v>0.1399860279477519</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1105360619098798</v>
+        <v>0.1085863703574357</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08887073827725374</v>
+        <v>0.08787161794244934</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4368796823021079</v>
+        <v>0.4954451014890277</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2906896507963982</v>
+        <v>0.3044674623454444</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.404412386289273</v>
+        <v>0.4041063133728514</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2079285557666566</v>
+        <v>0.223992615758545</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.311443224006679</v>
+        <v>0.3468917350276691</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.398099618752131</v>
+        <v>0.4007674937699339</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2880379545738544</v>
+        <v>0.3045448731137454</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.241476047618293</v>
+        <v>0.2572464832423383</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.269052797823757</v>
+        <v>0.2731295567618884</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.320347752515162</v>
+        <v>0.3179369934631238</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2914552201924352</v>
+        <v>0.2996006015607544</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2056002308068121</v>
+        <v>0.2038556519528114</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.1209772602206243</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.261443513950067</v>
+        <v>0.2614435139500671</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2453973702139408</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1284884922153111</v>
+        <v>0.1589998062791862</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07393593415821603</v>
+        <v>0.07427699654271254</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1213467679942201</v>
+        <v>0.1272148711914502</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0633256206321908</v>
+        <v>0.06337252192235933</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.299233210932862</v>
+        <v>0.2947213582510447</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05681322922525527</v>
+        <v>0.05199501607458822</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1692665141202217</v>
+        <v>0.1647495974381109</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1394618462942998</v>
+        <v>0.1235237021361743</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2586775536776079</v>
+        <v>0.2702217744975488</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09937202559066252</v>
+        <v>0.1055035470824241</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1384912996293235</v>
+        <v>0.1347605511291362</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6432541660077656</v>
+        <v>0.633335655838105</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3902485820802495</v>
+        <v>0.3977564807629397</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4895374545316575</v>
+        <v>0.4855149842128752</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3864977081532394</v>
+        <v>0.4457564911887597</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3492028580203325</v>
+        <v>0.340422759927407</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5000544260388182</v>
+        <v>0.4974310233312001</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2273118244308691</v>
+        <v>0.2300951690595792</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3959828849666509</v>
+        <v>0.4089961398911555</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4047119255171686</v>
+        <v>0.3790374862575097</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4442385137037559</v>
+        <v>0.4433041279511626</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2720423258415455</v>
+        <v>0.2680521093388173</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3636178343932841</v>
+        <v>0.3488158461590984</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1855485883474114</v>
+        <v>0.1844605365484027</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2000465606724085</v>
+        <v>0.1998332905392889</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1185887536949331</v>
+        <v>0.1125356196550872</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.10463847755982</v>
+        <v>0.1081426291942924</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1009434212621744</v>
+        <v>0.1016480972577548</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2253725933352568</v>
+        <v>0.2271018087347884</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09337410973040168</v>
+        <v>0.09957699663614289</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1386619183237932</v>
+        <v>0.1373687146546836</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1704721410143716</v>
+        <v>0.1673562603058082</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2317792469731457</v>
+        <v>0.2275236974518594</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1166424917785176</v>
+        <v>0.1168391849727012</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1342316652656396</v>
+        <v>0.1324409240723365</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3448511999907901</v>
+        <v>0.3337105281253748</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3032568639912713</v>
+        <v>0.3042914733765441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2234517197381383</v>
+        <v>0.2205163787498732</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2031959978610534</v>
+        <v>0.2128578555903801</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2585302242957889</v>
+        <v>0.2500440193789143</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3432818640050471</v>
+        <v>0.3450642188261306</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1975778706328508</v>
+        <v>0.2041149012183035</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2221349376019031</v>
+        <v>0.2173973768411046</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2795776730773054</v>
+        <v>0.2786996002613907</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3082158731202521</v>
+        <v>0.3057050302085133</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1948902165250718</v>
+        <v>0.1895526349169909</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1987931302038641</v>
+        <v>0.2010445337553282</v>
       </c>
     </row>
     <row r="25">
@@ -1870,16 +1870,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1966</v>
+        <v>1951</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5917</v>
+        <v>5487</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>782</v>
+        <v>822</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2147</v>
+        <v>2176</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>2593</v>
+        <v>2549</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2401</v>
+        <v>2735</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6504</v>
+        <v>6645</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6142</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="7">
@@ -1912,38 +1912,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9103</v>
+        <v>9020</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17811</v>
+        <v>17808</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7876</v>
+        <v>7751</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11336</v>
+        <v>11262</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4455</v>
+        <v>4436</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5789</v>
+        <v>5152</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>9209</v>
+        <v>8485</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11226</v>
+        <v>11345</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19034</v>
+        <v>20474</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8791</v>
+        <v>7871</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17224</v>
+        <v>18112</v>
       </c>
     </row>
     <row r="8">
@@ -2046,40 +2046,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1160</v>
+        <v>1536</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3853</v>
+        <v>3883</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1787</v>
+        <v>1804</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3016</v>
+        <v>2951</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1440</v>
+        <v>1597</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3498</v>
+        <v>3344</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8796</v>
+        <v>8898</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1562</v>
+        <v>1122</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>5104</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="11">
@@ -2090,40 +2090,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8142</v>
+        <v>8110</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14252</v>
+        <v>14654</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4206</v>
+        <v>5136</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13397</v>
+        <v>12753</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5588</v>
+        <v>4804</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13176</v>
+        <v>12482</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9079</v>
+        <v>9563</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7267</v>
+        <v>7650</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11959</v>
+        <v>11546</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>23354</v>
+        <v>24143</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>10628</v>
+        <v>11081</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>17251</v>
+        <v>18643</v>
       </c>
     </row>
     <row r="12">
@@ -2226,19 +2226,19 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2117</v>
+        <v>1918</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6089</v>
+        <v>6288</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>673</v>
+        <v>635</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3963</v>
+        <v>3786</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7508</v>
+        <v>7843</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3260</v>
+        <v>3147</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3059</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="15">
@@ -2270,40 +2270,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11031</v>
+        <v>11404</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18129</v>
+        <v>17727</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10052</v>
+        <v>9585</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8360</v>
+        <v>7706</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>4957</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5848</v>
+        <v>5813</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5493</v>
+        <v>5575</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5229</v>
+        <v>5136</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14160</v>
+        <v>14420</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20581</v>
+        <v>20330</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>13422</v>
+        <v>13347</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>11316</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="16">
@@ -2409,37 +2409,37 @@
         <v>3895</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20801</v>
+        <v>20704</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7296</v>
+        <v>6900</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5974</v>
+        <v>6064</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3978</v>
+        <v>3828</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3372</v>
+        <v>3414</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5288</v>
+        <v>5157</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30231</v>
+        <v>29181</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>7213</v>
+        <v>7034</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>12744</v>
+        <v>11969</v>
       </c>
     </row>
     <row r="19">
@@ -2450,40 +2450,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13836</v>
+        <v>14713</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39526</v>
+        <v>38188</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10668</v>
+        <v>11220</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21358</v>
+        <v>21349</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6048</v>
+        <v>5776</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>18035</v>
+        <v>18182</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13951</v>
+        <v>14531</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>10622</v>
+        <v>10993</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>17612</v>
+        <v>18589</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>51557</v>
+        <v>51040</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>20865</v>
+        <v>20452</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>28044</v>
+        <v>28099</v>
       </c>
     </row>
     <row r="20">
@@ -2589,37 +2589,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2038</v>
+        <v>2115</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5384</v>
+        <v>5152</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1664</v>
+        <v>1572</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9619</v>
+        <v>9591</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2161</v>
+        <v>2142</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5022</v>
+        <v>5499</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1427</v>
+        <v>1829</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>14274</v>
+        <v>13509</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>9063</v>
+        <v>8903</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>8645</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="23">
@@ -2630,40 +2630,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5523</v>
+        <v>6263</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11127</v>
+        <v>11654</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16817</v>
+        <v>16804</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8384</v>
+        <v>9032</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6991</v>
+        <v>7787</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>23180</v>
+        <v>23335</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11640</v>
+        <v>12307</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>13754</v>
+        <v>14653</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>9441</v>
+        <v>9584</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>30915</v>
+        <v>30682</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>23898</v>
+        <v>24565</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>20001</v>
+        <v>19831</v>
       </c>
     </row>
     <row r="24">
@@ -2766,40 +2766,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2080</v>
+        <v>2575</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3591</v>
+        <v>3765</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>26708</v>
+        <v>26305</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>3434</v>
+        <v>3142</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>8328</v>
+        <v>8105</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6169</v>
+        <v>5464</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>30027</v>
+        <v>31367</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8947</v>
+        <v>9499</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>8368</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="27">
@@ -2810,40 +2810,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10416</v>
+        <v>10255</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>10468</v>
+        <v>10670</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14488</v>
+        <v>14369</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4337</v>
+        <v>5002</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9792</v>
+        <v>9546</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>44632</v>
+        <v>44398</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>13738</v>
+        <v>13906</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19482</v>
+        <v>20122</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>17902</v>
+        <v>16766</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>51567</v>
+        <v>51458</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>24492</v>
+        <v>24133</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>21970</v>
+        <v>21075</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>22641</v>
+        <v>22508</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>56767</v>
+        <v>56706</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>23674</v>
+        <v>22466</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>22831</v>
+        <v>23596</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>9469</v>
+        <v>9535</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>57322</v>
+        <v>57762</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>17766</v>
+        <v>18946</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>31256</v>
+        <v>30965</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>36792</v>
+        <v>36120</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>124723</v>
+        <v>122433</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>45479</v>
+        <v>45556</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>59546</v>
+        <v>58751</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>42079</v>
+        <v>40719</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>86055</v>
+        <v>86348</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>44609</v>
+        <v>44023</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>44336</v>
+        <v>46444</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>24252</v>
+        <v>23456</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>87312</v>
+        <v>87765</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>37592</v>
+        <v>38836</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>50072</v>
+        <v>49004</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>60340</v>
+        <v>60150</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>165855</v>
+        <v>164504</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>75988</v>
+        <v>73907</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>88185</v>
+        <v>89184</v>
       </c>
     </row>
     <row r="32">
